--- a/prompts.xlsx
+++ b/prompts.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">1-5</t>
   </si>
   <si>
-    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 1-5 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \item According to the PDF pages 1-5, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
+    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 1-5 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \QUESTIONBREAK \item According to the PDF pages 1-5, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
   </si>
   <si>
     <t xml:space="preserve">6-10</t>
@@ -37,109 +37,109 @@
     <t xml:space="preserve">11-15</t>
   </si>
   <si>
-    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 11-15 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \item According to the PDF pages 11-15, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
+    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 11-15 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \QUESTIONBREAK \item According to the PDF pages 11-15, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
   </si>
   <si>
     <t xml:space="preserve">16-20</t>
   </si>
   <si>
-    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 16-20 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \item According to the PDF pages 16-20, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
+    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 16-20 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \QUESTIONBREAK \item According to the PDF pages 16-20, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
   </si>
   <si>
     <t xml:space="preserve">21-25</t>
   </si>
   <si>
-    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 21-25 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \item According to the PDF pages 21-25, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
+    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 21-25 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \QUESTIONBREAK \item According to the PDF pages 21-25, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
   </si>
   <si>
     <t xml:space="preserve">26-30</t>
   </si>
   <si>
-    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 26-30 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \item According to the PDF pages 26-30, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
+    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 26-30 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \QUESTIONBREAK \item According to the PDF pages 26-30, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
   </si>
   <si>
     <t xml:space="preserve">31-35</t>
   </si>
   <si>
-    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 31-35 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \item According to the PDF pages 31-35, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
+    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 31-35 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \QUESTIONBREAK \item According to the PDF pages 31-35, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
   </si>
   <si>
     <t xml:space="preserve">36-40</t>
   </si>
   <si>
-    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 36-40 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \item According to the PDF pages 36-40, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
+    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 36-40 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \QUESTIONBREAK \item According to the PDF pages 36-40, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
   </si>
   <si>
     <t xml:space="preserve">41-45</t>
   </si>
   <si>
-    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 41-45 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \item According to the PDF pages 41-45, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
+    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 41-45 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \QUESTIONBREAK \item According to the PDF pages 41-45, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
   </si>
   <si>
     <t xml:space="preserve">46-50</t>
   </si>
   <si>
-    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 46-50 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \item According to the PDF pages 46-50, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
+    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 46-50 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \QUESTIONBREAK \item According to the PDF pages 46-50, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
   </si>
   <si>
     <t xml:space="preserve">51-55</t>
   </si>
   <si>
-    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 51-55 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \item According to the PDF pages 51-55, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
+    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 51-55 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \QUESTIONBREAK \item According to the PDF pages 51-55, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
   </si>
   <si>
     <t xml:space="preserve">56-60</t>
   </si>
   <si>
-    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 56-60 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \item According to the PDF pages 56-60, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
+    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 56-60 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \QUESTIONBREAK \item According to the PDF pages 56-60, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
   </si>
   <si>
     <t xml:space="preserve">61-65</t>
   </si>
   <si>
-    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 61-65 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \item According to the PDF pages 61-65, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
+    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 61-65 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \QUESTIONBREAK \item According to the PDF pages 61-65, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
   </si>
   <si>
     <t xml:space="preserve">66-70</t>
   </si>
   <si>
-    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 66-70 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \item According to the PDF pages 66-70, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
+    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 66-70 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \QUESTIONBREAK \item According to the PDF pages 66-70, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
   </si>
   <si>
     <t xml:space="preserve">71-75</t>
   </si>
   <si>
-    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 71-75 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \item According to the PDF pages 71-75, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
+    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 71-75 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \QUESTIONBREAK \item According to the PDF pages 71-75, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
   </si>
   <si>
     <t xml:space="preserve">76-80</t>
   </si>
   <si>
-    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 76-80 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \item According to the PDF pages 76-80, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
+    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 76-80 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \QUESTIONBREAK \item According to the PDF pages 76-80, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
   </si>
   <si>
     <t xml:space="preserve">81-85</t>
   </si>
   <si>
-    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 81-85 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \item According to the PDF pages 81-85, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
+    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 81-85 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \QUESTIONBREAK \item According to the PDF pages 81-85, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
   </si>
   <si>
     <t xml:space="preserve">86-90</t>
   </si>
   <si>
-    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 86-90 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \item According to the PDF pages 86-90, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
+    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 86-90 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \QUESTIONBREAK \item According to the PDF pages 86-90, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
   </si>
   <si>
     <t xml:space="preserve">91-95</t>
   </si>
   <si>
-    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 91-95 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \item According to the PDF pages 91-95, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
+    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 91-95 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \QUESTIONBREAK \item According to the PDF pages 91-95, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
   </si>
   <si>
     <t xml:space="preserve">96-100</t>
   </si>
   <si>
-    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 96-100 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \item According to the PDF pages 96-100, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
+    <t xml:space="preserve">Please generate 10 multiple-choice questions (MCQs) in LaTeX format about Dr. B.R. Ambedkar, focusing on interesting titbits from pages 96-100 of the provided PDF. The questions should cover his life, views, struggles, and legacy based strictly on the content from these specific pages. Use this exact format: \QUESTIONBREAK \item According to the PDF pages 96-100, what was a key aspect of Ambedkar's work? \begin{enumerate}[label=(\alph*)] \item Option 1 \item Option 2 $\checkmark$ \item Option 3 \item Option 4 \end{enumerate}</t>
   </si>
 </sst>
 </file>
@@ -155,6 +155,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -214,12 +215,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -349,20 +354,20 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="109.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="109.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -370,7 +375,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -378,7 +383,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -386,7 +391,7 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -394,7 +399,7 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -402,7 +407,7 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -410,7 +415,7 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -418,7 +423,7 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -426,7 +431,7 @@
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -434,7 +439,7 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -442,7 +447,7 @@
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -450,7 +455,7 @@
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -458,7 +463,7 @@
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -466,7 +471,7 @@
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -474,7 +479,7 @@
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -482,7 +487,7 @@
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -490,7 +495,7 @@
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -498,7 +503,7 @@
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -506,7 +511,7 @@
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -514,7 +519,7 @@
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
